--- a/tutorials/1/plots.xlsx
+++ b/tutorials/1/plots.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10714"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fisma/Study/booksim-tutorial/tutorials/1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FE2D1EE-326D-D947-BBAC-4B8127E473E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E030C975-1A6D-744B-9D9D-C513AB53E603}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16940" xr2:uid="{CF6D66B4-4B25-6541-946C-298A26F5B191}"/>
   </bookViews>
@@ -1445,7 +1445,15 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>2D-256-1</a:t>
+              <a:t>2D-2</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ko-KR"/>
+              <a:t>1</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>6-1</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -2102,7 +2110,15 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>2D-256-50</a:t>
+              <a:t>2D-2</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ko-KR"/>
+              <a:t>1</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>6-50</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -5416,8 +5432,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D036CB5-7D93-AC4B-A0D6-A0C62BF6A1C5}">
   <dimension ref="B5:W89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G25" zoomScale="93" workbookViewId="0">
-      <selection activeCell="S61" sqref="S61"/>
+    <sheetView tabSelected="1" topLeftCell="A23" zoomScale="93" workbookViewId="0">
+      <selection activeCell="O61" sqref="O61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
